--- a/data/142/STANOR/09672 Current and capital account (Balance To abroad).xlsx
+++ b/data/142/STANOR/09672 Current and capital account (Balance To abroad).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
   <x:si>
     <x:t>09672: Current and capital account. Current prices (NOK million), by contents, item and quarter</x:t>
   </x:si>
@@ -508,6 +508,9 @@
     <x:t>2021K3</x:t>
   </x:si>
   <x:si>
+    <x:t>2021K4</x:t>
+  </x:si>
+  <x:si>
     <x:t>Current and capital account</x:t>
   </x:si>
   <x:si>
@@ -571,13 +574,13 @@
     <x:t>.. = Data not available. Figures have not been entered into our databases or are too unreliable to be published.</x:t>
   </x:si>
   <x:si>
-    <x:t>Latest update:</x:t>
+    <x:t>Updated:</x:t>
   </x:si>
   <x:si>
     <x:t>Current and capital account:</x:t>
   </x:si>
   <x:si>
-    <x:t>20211201 08:00</x:t>
+    <x:t>20220302 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -1028,22 +1031,21 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:FI64"/>
+  <x:dimension ref="A1:FJ64"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="2" width="40.710625" style="0" customWidth="1"/>
-    <x:col min="3" max="165" width="8.300625" style="0" customWidth="1"/>
+    <x:col min="1" max="166" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:165">
+    <x:row r="1" spans="1:166">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:165">
+    <x:row r="3" spans="1:166">
       <x:c r="C3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -1533,13 +1535,16 @@
       <x:c r="FI3" s="2" t="s">
         <x:v>163</x:v>
       </x:c>
+      <x:c r="FJ3" s="2" t="s">
+        <x:v>164</x:v>
+      </x:c>
     </x:row>
-    <x:row r="4" spans="1:165">
+    <x:row r="4" spans="1:166">
       <x:c r="A4" s="2" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="C4" s="3" t="n">
         <x:v>5449</x:v>
@@ -2010,30 +2015,33 @@
         <x:v>107850</x:v>
       </x:c>
       <x:c r="FC4" s="3" t="n">
-        <x:v>70784</x:v>
+        <x:v>65602</x:v>
       </x:c>
       <x:c r="FD4" s="3" t="n">
-        <x:v>96670</x:v>
+        <x:v>91488</x:v>
       </x:c>
       <x:c r="FE4" s="3" t="n">
-        <x:v>55486</x:v>
+        <x:v>50304</x:v>
       </x:c>
       <x:c r="FF4" s="3" t="n">
-        <x:v>90431</x:v>
+        <x:v>85249</x:v>
       </x:c>
       <x:c r="FG4" s="3" t="n">
-        <x:v>56943</x:v>
+        <x:v>52084</x:v>
       </x:c>
       <x:c r="FH4" s="3" t="n">
-        <x:v>70185</x:v>
+        <x:v>65706</x:v>
       </x:c>
       <x:c r="FI4" s="3" t="n">
-        <x:v>74996</x:v>
+        <x:v>77835</x:v>
+      </x:c>
+      <x:c r="FJ4" s="3" t="n">
+        <x:v>72061</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:165">
+    <x:row r="5" spans="1:166">
       <x:c r="B5" s="2" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C5" s="3" t="n">
         <x:v>319</x:v>
@@ -2522,12 +2530,15 @@
         <x:v>8072</x:v>
       </x:c>
       <x:c r="FI5" s="3" t="n">
-        <x:v>8803</x:v>
+        <x:v>8800</x:v>
+      </x:c>
+      <x:c r="FJ5" s="3" t="n">
+        <x:v>9917</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:165">
+    <x:row r="6" spans="1:166">
       <x:c r="B6" s="2" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="C6" s="3" t="n">
         <x:v>3707</x:v>
@@ -3010,390 +3021,393 @@
         <x:v>13004</x:v>
       </x:c>
       <x:c r="FG6" s="3" t="n">
-        <x:v>15090</x:v>
+        <x:v>15074</x:v>
       </x:c>
       <x:c r="FH6" s="3" t="n">
-        <x:v>13872</x:v>
+        <x:v>14572</x:v>
       </x:c>
       <x:c r="FI6" s="3" t="n">
-        <x:v>11919</x:v>
+        <x:v>12657</x:v>
+      </x:c>
+      <x:c r="FJ6" s="3" t="n">
+        <x:v>14570</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:165">
+    <x:row r="7" spans="1:166">
       <x:c r="B7" s="2" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="C7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="F7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="G7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="H7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="I7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="J7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="K7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="L7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="M7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="N7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="O7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="P7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="Q7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="R7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="S7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="T7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="U7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="V7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="W7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="X7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="Y7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="Z7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AA7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AB7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AC7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AD7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AE7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AF7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AG7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AH7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AI7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AJ7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AK7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AL7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AM7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AN7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AO7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AP7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AQ7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AR7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AS7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AT7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AU7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AV7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AW7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AX7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AY7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AZ7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BA7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BB7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BC7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BD7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BE7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BF7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BG7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BH7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BI7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BJ7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BK7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BL7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BM7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BN7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BO7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BP7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BQ7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BR7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BS7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BT7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BU7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BV7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BW7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BX7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BY7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BZ7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CA7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CB7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CC7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CD7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CE7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CF7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CG7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CH7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CI7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CJ7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CK7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CL7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CM7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CN7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CO7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CP7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CQ7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CR7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CS7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CT7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CU7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CV7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CW7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CX7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CY7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CZ7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="DA7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="DB7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="DC7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="DD7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="DE7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="DF7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="DG7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="DH7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="DI7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="DJ7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="DK7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="DL7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="DM7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="DN7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="DO7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="DP7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="DQ7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="DR7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="DS7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="DT7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="DU7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="DV7" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="DW7" s="3" t="n">
         <x:v>8370</x:v>
@@ -3504,390 +3518,393 @@
         <x:v>3815</x:v>
       </x:c>
       <x:c r="FG7" s="3" t="n">
-        <x:v>3034</x:v>
+        <x:v>3007</x:v>
       </x:c>
       <x:c r="FH7" s="3" t="n">
-        <x:v>2458</x:v>
+        <x:v>2636</x:v>
       </x:c>
       <x:c r="FI7" s="3" t="n">
-        <x:v>2902</x:v>
+        <x:v>2940</x:v>
+      </x:c>
+      <x:c r="FJ7" s="3" t="n">
+        <x:v>3241</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:165">
+    <x:row r="8" spans="1:166">
       <x:c r="B8" s="2" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="C8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="F8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="G8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="H8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="I8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="J8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="K8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="L8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="M8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="N8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="O8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="P8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="Q8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="R8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="S8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="T8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="U8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="V8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="W8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="X8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="Y8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="Z8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AA8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AB8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AC8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AD8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AE8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AF8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AG8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AH8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AI8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AJ8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AK8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AL8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AM8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AN8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AO8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AP8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AQ8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AR8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AS8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AT8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AU8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AV8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AW8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AX8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AY8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AZ8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BA8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BB8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BC8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BD8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BE8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BF8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BG8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BH8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BI8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BJ8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BK8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BL8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BM8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BN8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BO8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BP8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BQ8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BR8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BS8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BT8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BU8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BV8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BW8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BX8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BY8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BZ8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CA8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CB8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CC8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CD8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CE8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CF8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CG8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CH8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CI8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CJ8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CK8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CL8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CM8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CN8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CO8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CP8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CQ8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CR8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CS8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CT8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CU8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CV8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CW8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CX8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CY8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CZ8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="DA8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="DB8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="DC8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="DD8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="DE8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="DF8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="DG8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="DH8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="DI8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="DJ8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="DK8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="DL8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="DM8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="DN8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="DO8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="DP8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="DQ8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="DR8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="DS8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="DT8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="DU8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="DV8" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="DW8" s="3" t="n">
         <x:v>13240</x:v>
@@ -3998,18 +4015,21 @@
         <x:v>9189</x:v>
       </x:c>
       <x:c r="FG8" s="3" t="n">
-        <x:v>12056</x:v>
+        <x:v>12067</x:v>
       </x:c>
       <x:c r="FH8" s="3" t="n">
-        <x:v>11414</x:v>
+        <x:v>11936</x:v>
       </x:c>
       <x:c r="FI8" s="3" t="n">
-        <x:v>9017</x:v>
+        <x:v>9717</x:v>
+      </x:c>
+      <x:c r="FJ8" s="3" t="n">
+        <x:v>11329</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:165">
+    <x:row r="9" spans="1:166">
       <x:c r="B9" s="2" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="C9" s="3" t="n">
         <x:v>493</x:v>
@@ -4492,306 +4512,309 @@
         <x:v>29130</x:v>
       </x:c>
       <x:c r="FG9" s="3" t="n">
-        <x:v>9496</x:v>
+        <x:v>9975</x:v>
       </x:c>
       <x:c r="FH9" s="3" t="n">
-        <x:v>22202</x:v>
+        <x:v>22324</x:v>
       </x:c>
       <x:c r="FI9" s="3" t="n">
-        <x:v>26499</x:v>
+        <x:v>33878</x:v>
+      </x:c>
+      <x:c r="FJ9" s="3" t="n">
+        <x:v>15998</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:165">
+    <x:row r="10" spans="1:166">
       <x:c r="B10" s="2" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="C10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="F10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="G10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="H10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="I10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="J10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="K10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="L10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="M10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="N10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="O10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="P10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="Q10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="R10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="S10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="T10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="U10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="V10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="W10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="X10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="Y10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="Z10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AA10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AB10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AC10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AD10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AE10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AF10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AG10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AH10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AI10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AJ10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AK10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AL10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AM10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AN10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AO10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AP10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AQ10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AR10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AS10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AT10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AU10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AV10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AW10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AX10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AY10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AZ10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BA10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BB10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BC10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BD10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BE10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BF10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BG10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BH10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BI10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BJ10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BK10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BL10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BM10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BN10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BO10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BP10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BQ10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BR10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BS10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BT10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BU10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BV10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BW10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BX10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BY10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BZ10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CA10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CB10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CC10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CD10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CE10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CF10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CG10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CH10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CI10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CJ10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CK10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CL10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CM10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CN10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CO10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CP10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CQ10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CR10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CS10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CT10" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CU10" s="3" t="n">
         <x:v>14567</x:v>
@@ -4986,306 +5009,309 @@
         <x:v>15728</x:v>
       </x:c>
       <x:c r="FG10" s="3" t="n">
-        <x:v>1887</x:v>
+        <x:v>2181</x:v>
       </x:c>
       <x:c r="FH10" s="3" t="n">
-        <x:v>10921</x:v>
+        <x:v>10972</x:v>
       </x:c>
       <x:c r="FI10" s="3" t="n">
-        <x:v>21973</x:v>
+        <x:v>22268</x:v>
+      </x:c>
+      <x:c r="FJ10" s="3" t="n">
+        <x:v>11131</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:165">
+    <x:row r="11" spans="1:166">
       <x:c r="B11" s="2" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="C11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="F11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="G11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="H11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="I11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="J11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="K11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="L11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="M11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="N11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="O11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="P11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="Q11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="R11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="S11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="T11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="U11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="V11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="W11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="X11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="Y11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="Z11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AA11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AB11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AC11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AD11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AE11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AF11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AG11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AH11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AI11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AJ11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AK11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AL11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AM11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AN11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AO11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AP11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AQ11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AR11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AS11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AT11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AU11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AV11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AW11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AX11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AY11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AZ11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BA11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BB11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BC11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BD11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BE11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BF11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BG11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BH11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BI11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BJ11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BK11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BL11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BM11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BN11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BO11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BP11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BQ11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BR11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BS11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BT11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BU11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BV11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BW11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BX11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BY11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BZ11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CA11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CB11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CC11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CD11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CE11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CF11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CG11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CH11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CI11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CJ11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CK11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CL11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CM11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CN11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CO11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CP11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CQ11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CR11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CS11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CT11" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="CU11" s="3" t="n">
         <x:v>1193</x:v>
@@ -5480,18 +5506,21 @@
         <x:v>13402</x:v>
       </x:c>
       <x:c r="FG11" s="3" t="n">
-        <x:v>7609</x:v>
+        <x:v>7794</x:v>
       </x:c>
       <x:c r="FH11" s="3" t="n">
-        <x:v>11281</x:v>
+        <x:v>11352</x:v>
       </x:c>
       <x:c r="FI11" s="3" t="n">
-        <x:v>4526</x:v>
+        <x:v>11610</x:v>
+      </x:c>
+      <x:c r="FJ11" s="3" t="n">
+        <x:v>4867</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:165">
+    <x:row r="12" spans="1:166">
       <x:c r="B12" s="2" t="s">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="C12" s="3" t="n">
         <x:v>0</x:v>
@@ -5962,30 +5991,33 @@
         <x:v>2705</x:v>
       </x:c>
       <x:c r="FC12" s="3" t="n">
-        <x:v>-3098</x:v>
+        <x:v>-8280</x:v>
       </x:c>
       <x:c r="FD12" s="3" t="n">
-        <x:v>-2825</x:v>
+        <x:v>-8007</x:v>
       </x:c>
       <x:c r="FE12" s="3" t="n">
-        <x:v>-3244</x:v>
+        <x:v>-8426</x:v>
       </x:c>
       <x:c r="FF12" s="3" t="n">
-        <x:v>-3168</x:v>
+        <x:v>-8350</x:v>
       </x:c>
       <x:c r="FG12" s="3" t="n">
-        <x:v>-3114</x:v>
+        <x:v>-8402</x:v>
       </x:c>
       <x:c r="FH12" s="3" t="n">
-        <x:v>-2381</x:v>
+        <x:v>-7669</x:v>
       </x:c>
       <x:c r="FI12" s="3" t="n">
-        <x:v>-3087</x:v>
+        <x:v>-8375</x:v>
+      </x:c>
+      <x:c r="FJ12" s="3" t="n">
+        <x:v>-8191</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:165">
+    <x:row r="13" spans="1:166">
       <x:c r="B13" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C13" s="3" t="n">
         <x:v>635</x:v>
@@ -6468,18 +6500,21 @@
         <x:v>22656</x:v>
       </x:c>
       <x:c r="FG13" s="3" t="n">
-        <x:v>10098</x:v>
+        <x:v>10081</x:v>
       </x:c>
       <x:c r="FH13" s="3" t="n">
-        <x:v>11412</x:v>
+        <x:v>11395</x:v>
       </x:c>
       <x:c r="FI13" s="3" t="n">
-        <x:v>12322</x:v>
+        <x:v>12305</x:v>
+      </x:c>
+      <x:c r="FJ13" s="3" t="n">
+        <x:v>19411</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:165">
+    <x:row r="14" spans="1:166">
       <x:c r="B14" s="2" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="C14" s="3" t="n">
         <x:v>295</x:v>
@@ -6962,18 +6997,21 @@
         <x:v>19206</x:v>
       </x:c>
       <x:c r="FG14" s="3" t="n">
-        <x:v>17887</x:v>
+        <x:v>17870</x:v>
       </x:c>
       <x:c r="FH14" s="3" t="n">
-        <x:v>17008</x:v>
+        <x:v>17012</x:v>
       </x:c>
       <x:c r="FI14" s="3" t="n">
-        <x:v>18540</x:v>
+        <x:v>18570</x:v>
+      </x:c>
+      <x:c r="FJ14" s="3" t="n">
+        <x:v>20356</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:165">
+    <x:row r="15" spans="1:166">
       <x:c r="B15" s="2" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="C15" s="3" t="n">
         <x:v>-3459</x:v>
@@ -7444,30 +7482,33 @@
         <x:v>-12583</x:v>
       </x:c>
       <x:c r="FC15" s="3" t="n">
-        <x:v>35522</x:v>
+        <x:v>39343</x:v>
       </x:c>
       <x:c r="FD15" s="3" t="n">
-        <x:v>-4235</x:v>
+        <x:v>-414</x:v>
       </x:c>
       <x:c r="FE15" s="3" t="n">
-        <x:v>26114</x:v>
+        <x:v>29935</x:v>
       </x:c>
       <x:c r="FF15" s="3" t="n">
-        <x:v>-6058</x:v>
+        <x:v>-2237</x:v>
       </x:c>
       <x:c r="FG15" s="3" t="n">
-        <x:v>34422</x:v>
+        <x:v>40118</x:v>
       </x:c>
       <x:c r="FH15" s="3" t="n">
-        <x:v>42864</x:v>
+        <x:v>43288</x:v>
       </x:c>
       <x:c r="FI15" s="3" t="n">
-        <x:v>18607</x:v>
+        <x:v>24485</x:v>
+      </x:c>
+      <x:c r="FJ15" s="3" t="n">
+        <x:v>12014</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:165">
+    <x:row r="16" spans="1:166">
       <x:c r="B16" s="2" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="C16" s="3" t="n">
         <x:v>-2722</x:v>
@@ -7938,30 +7979,33 @@
         <x:v>11330</x:v>
       </x:c>
       <x:c r="FC16" s="3" t="n">
-        <x:v>44155</x:v>
+        <x:v>47976</x:v>
       </x:c>
       <x:c r="FD16" s="3" t="n">
-        <x:v>12729</x:v>
+        <x:v>16550</x:v>
       </x:c>
       <x:c r="FE16" s="3" t="n">
-        <x:v>41509</x:v>
+        <x:v>45330</x:v>
       </x:c>
       <x:c r="FF16" s="3" t="n">
-        <x:v>22884</x:v>
+        <x:v>26705</x:v>
       </x:c>
       <x:c r="FG16" s="3" t="n">
-        <x:v>44849</x:v>
+        <x:v>50529</x:v>
       </x:c>
       <x:c r="FH16" s="3" t="n">
-        <x:v>59568</x:v>
+        <x:v>59979</x:v>
       </x:c>
       <x:c r="FI16" s="3" t="n">
-        <x:v>37723</x:v>
+        <x:v>43599</x:v>
+      </x:c>
+      <x:c r="FJ16" s="3" t="n">
+        <x:v>36420</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:165">
+    <x:row r="17" spans="1:166">
       <x:c r="B17" s="2" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="C17" s="3" t="n">
         <x:v>-737</x:v>
@@ -8444,18 +8488,21 @@
         <x:v>-28942</x:v>
       </x:c>
       <x:c r="FG17" s="3" t="n">
-        <x:v>-10427</x:v>
+        <x:v>-10411</x:v>
       </x:c>
       <x:c r="FH17" s="3" t="n">
-        <x:v>-16704</x:v>
+        <x:v>-16691</x:v>
       </x:c>
       <x:c r="FI17" s="3" t="n">
-        <x:v>-19116</x:v>
+        <x:v>-19114</x:v>
+      </x:c>
+      <x:c r="FJ17" s="3" t="n">
+        <x:v>-24406</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:165">
+    <x:row r="18" spans="1:166">
       <x:c r="B18" s="2" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C18" s="3" t="n">
         <x:v>2367</x:v>
@@ -8926,30 +8973,33 @@
         <x:v>8437</x:v>
       </x:c>
       <x:c r="FC18" s="3" t="n">
-        <x:v>45185</x:v>
+        <x:v>49006</x:v>
       </x:c>
       <x:c r="FD18" s="3" t="n">
-        <x:v>-30485</x:v>
+        <x:v>-26664</x:v>
       </x:c>
       <x:c r="FE18" s="3" t="n">
-        <x:v>7558</x:v>
+        <x:v>11379</x:v>
       </x:c>
       <x:c r="FF18" s="3" t="n">
-        <x:v>439</x:v>
+        <x:v>4260</x:v>
       </x:c>
       <x:c r="FG18" s="3" t="n">
-        <x:v>96691</x:v>
+        <x:v>103688</x:v>
       </x:c>
       <x:c r="FH18" s="3" t="n">
-        <x:v>104409</x:v>
+        <x:v>106862</x:v>
       </x:c>
       <x:c r="FI18" s="3" t="n">
-        <x:v>148337</x:v>
+        <x:v>156081</x:v>
+      </x:c>
+      <x:c r="FJ18" s="3" t="n">
+        <x:v>269482</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:165">
+    <x:row r="19" spans="1:166">
       <x:c r="B19" s="2" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="C19" s="3" t="n">
         <x:v>64</x:v>
@@ -9440,10 +9490,13 @@
       <x:c r="FI19" s="3" t="n">
         <x:v>4</x:v>
       </x:c>
+      <x:c r="FJ19" s="3" t="n">
+        <x:v>54</x:v>
+      </x:c>
     </x:row>
-    <x:row r="20" spans="1:165">
+    <x:row r="20" spans="1:166">
       <x:c r="B20" s="2" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="C20" s="3" t="n">
         <x:v>0</x:v>
@@ -9932,12 +9985,15 @@
         <x:v>-8</x:v>
       </x:c>
       <x:c r="FI20" s="3" t="n">
-        <x:v>0</x:v>
+        <x:v>-11</x:v>
+      </x:c>
+      <x:c r="FJ20" s="3" t="n">
+        <x:v>-10</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:165">
+    <x:row r="21" spans="1:166">
       <x:c r="B21" s="2" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="C21" s="3" t="n">
         <x:v>2303</x:v>
@@ -10408,163 +10464,169 @@
         <x:v>8213</x:v>
       </x:c>
       <x:c r="FC21" s="3" t="n">
-        <x:v>44877</x:v>
+        <x:v>48698</x:v>
       </x:c>
       <x:c r="FD21" s="3" t="n">
-        <x:v>-31263</x:v>
+        <x:v>-27442</x:v>
       </x:c>
       <x:c r="FE21" s="3" t="n">
-        <x:v>7528</x:v>
+        <x:v>11349</x:v>
       </x:c>
       <x:c r="FF21" s="3" t="n">
-        <x:v>449</x:v>
+        <x:v>4270</x:v>
       </x:c>
       <x:c r="FG21" s="3" t="n">
-        <x:v>95616</x:v>
+        <x:v>102613</x:v>
       </x:c>
       <x:c r="FH21" s="3" t="n">
-        <x:v>104367</x:v>
+        <x:v>106820</x:v>
       </x:c>
       <x:c r="FI21" s="3" t="n">
-        <x:v>148333</x:v>
+        <x:v>156088</x:v>
+      </x:c>
+      <x:c r="FJ21" s="3" t="n">
+        <x:v>269438</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:165">
+    <x:row r="23" spans="1:166">
       <x:c r="A23" s="5" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:165">
+    <x:row r="25" spans="1:166">
       <x:c r="A25" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:165">
+    <x:row r="26" spans="1:166">
       <x:c r="A26" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:165">
+    <x:row r="27" spans="1:166">
       <x:c r="A27" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:166">
+      <x:c r="A29" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:166">
+      <x:c r="A30" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:166">
+      <x:c r="A32" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:166">
+      <x:c r="A33" s="0" t="s">
         <x:v>187</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:165">
-      <x:c r="A29" s="0" t="s">
-        <x:v>188</x:v>
+    <x:row r="34" spans="1:166">
+      <x:c r="A34" s="0" t="s">
+        <x:v>192</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:165">
-      <x:c r="A30" s="0" t="s">
-        <x:v>189</x:v>
+    <x:row r="35" spans="1:166">
+      <x:c r="A35" s="0" t="s">
+        <x:v>193</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:165">
-      <x:c r="A32" s="0" t="s">
-        <x:v>190</x:v>
+    <x:row r="36" spans="1:166">
+      <x:c r="A36" s="0" t="s">
+        <x:v>194</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:165">
-      <x:c r="A33" s="0" t="s">
-        <x:v>186</x:v>
+    <x:row r="40" spans="1:166">
+      <x:c r="A40" s="0" t="s">
+        <x:v>195</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:165">
-      <x:c r="A34" s="0" t="s">
-        <x:v>191</x:v>
+    <x:row r="42" spans="1:166">
+      <x:c r="A42" s="0" t="s">
+        <x:v>196</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:165">
-      <x:c r="A35" s="0" t="s">
-        <x:v>192</x:v>
+    <x:row r="43" spans="1:166">
+      <x:c r="A43" s="0" t="s">
+        <x:v>187</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:165">
-      <x:c r="A36" s="0" t="s">
-        <x:v>193</x:v>
+    <x:row r="44" spans="1:166">
+      <x:c r="A44" s="0" t="s">
+        <x:v>197</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:165">
-      <x:c r="A40" s="0" t="s">
-        <x:v>194</x:v>
+    <x:row r="45" spans="1:166">
+      <x:c r="A45" s="0" t="s">
+        <x:v>198</x:v>
       </x:c>
     </x:row>
-    <x:row r="42" spans="1:165">
-      <x:c r="A42" s="0" t="s">
-        <x:v>195</x:v>
+    <x:row r="46" spans="1:166">
+      <x:c r="A46" s="0" t="s">
+        <x:v>187</x:v>
       </x:c>
     </x:row>
-    <x:row r="43" spans="1:165">
-      <x:c r="A43" s="0" t="s">
-        <x:v>186</x:v>
+    <x:row r="47" spans="1:166">
+      <x:c r="A47" s="0" t="s">
+        <x:v>199</x:v>
       </x:c>
     </x:row>
-    <x:row r="44" spans="1:165">
-      <x:c r="A44" s="0" t="s">
-        <x:v>196</x:v>
+    <x:row r="49" spans="1:166">
+      <x:c r="A49" s="0" t="s">
+        <x:v>200</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:165">
-      <x:c r="A45" s="0" t="s">
-        <x:v>197</x:v>
+    <x:row r="50" spans="1:166">
+      <x:c r="A50" s="0" t="s">
+        <x:v>165</x:v>
       </x:c>
     </x:row>
-    <x:row r="46" spans="1:165">
-      <x:c r="A46" s="0" t="s">
-        <x:v>186</x:v>
+    <x:row r="51" spans="1:166">
+      <x:c r="A51" s="0" t="s">
+        <x:v>201</x:v>
       </x:c>
     </x:row>
-    <x:row r="47" spans="1:165">
-      <x:c r="A47" s="0" t="s">
-        <x:v>198</x:v>
+    <x:row r="54" spans="1:166">
+      <x:c r="A54" s="0" t="s">
+        <x:v>187</x:v>
       </x:c>
     </x:row>
-    <x:row r="49" spans="1:165">
-      <x:c r="A49" s="0" t="s">
-        <x:v>199</x:v>
+    <x:row r="55" spans="1:166">
+      <x:c r="A55" s="0" t="s">
+        <x:v>202</x:v>
       </x:c>
     </x:row>
-    <x:row r="50" spans="1:165">
-      <x:c r="A50" s="0" t="s">
-        <x:v>164</x:v>
+    <x:row r="60" spans="1:166">
+      <x:c r="A60" s="0" t="s">
+        <x:v>203</x:v>
       </x:c>
     </x:row>
-    <x:row r="51" spans="1:165">
-      <x:c r="A51" s="0" t="s">
-        <x:v>200</x:v>
+    <x:row r="61" spans="1:166">
+      <x:c r="A61" s="0" t="s">
+        <x:v>204</x:v>
       </x:c>
     </x:row>
-    <x:row r="54" spans="1:165">
-      <x:c r="A54" s="0" t="s">
-        <x:v>186</x:v>
+    <x:row r="63" spans="1:166">
+      <x:c r="A63" s="0" t="s">
+        <x:v>205</x:v>
       </x:c>
     </x:row>
-    <x:row r="55" spans="1:165">
-      <x:c r="A55" s="0" t="s">
-        <x:v>201</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="60" spans="1:165">
-      <x:c r="A60" s="0" t="s">
-        <x:v>202</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="61" spans="1:165">
-      <x:c r="A61" s="0" t="s">
-        <x:v>203</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="63" spans="1:165">
-      <x:c r="A63" s="0" t="s">
-        <x:v>204</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="64" spans="1:165">
+    <x:row r="64" spans="1:166">
       <x:c r="A64" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:mergeCells count="1">
+    <x:mergeCell ref="A23:FJ23"/>
+  </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
